--- a/biology/Botanique/Colli_Berici_Cabernet/Colli_Berici_Cabernet.xlsx
+++ b/biology/Botanique/Colli_Berici_Cabernet/Colli_Berici_Cabernet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Colli Berici Cabernet est un vin italien de la région Vénétie doté d'une appellation DOC depuis le 20 septembre 1973. Seuls ont droit à la DOC les vins rouges récoltés à l'intérieur de l'aire de production définie par le décret. 
@@ -512,7 +524,9 @@
           <t>Aire de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignobles autorisés se situent en province de Vicence dans les communes Albettone, Alonte, Arcugnano, Barbarano Vicentino, Brendola, Castegnero, Grancona, Mossano, Nanto, Orgiano, San Germano dei Berici, Sovizzo, Villaga, Zovencedo ainsi qu'en partie les communes Asigliano Veneto, Campiglia dei Berici, Creazzo, Longare, Lonigo, Montebello Vicentino, Montecchio Maggiore, Montegalda, Montegaldella, Monteviale, Sarego, Sossano et Vicenza. Les vignobles se situent sur des pentes des collines Colli Berici au sud de Vicence.
 Le vin rouge du type Cabernet  répond à un cahier des charges moins exigeant que le Colli Berici Cabernet riserva, essentiellement en relation avec le vieillissement et le titre alcoolique.
@@ -544,7 +558,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur : rouge rubis, tendant au rouge orange avec le vieillissement
 odeur : vineux, intense, épicé
@@ -579,6 +595,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -604,7 +622,9 @@
           <t>Association de plats conseillée</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les viandes rouges grillées
 </t>
@@ -635,7 +655,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>saison 1990-1991 : 5 677,29 hectolitres
 saison 1991-1992 : 5 352,23 hl
